--- a/data/trans_bre/P05A_R-Clase-trans_bre.xlsx
+++ b/data/trans_bre/P05A_R-Clase-trans_bre.xlsx
@@ -637,7 +637,7 @@
         <v>2.317497048793937</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>1.263760663813931</v>
+        <v>1.263760663813929</v>
       </c>
       <c r="G4" s="6" t="n">
         <v>0.05260306851612691</v>
@@ -649,7 +649,7 @@
         <v>0.06002232657320213</v>
       </c>
       <c r="J4" s="6" t="n">
-        <v>0.05457073943787671</v>
+        <v>0.05457073943787659</v>
       </c>
     </row>
     <row r="5">
@@ -660,28 +660,28 @@
         </is>
       </c>
       <c r="C5" s="5" t="n">
-        <v>-5.89475133834478</v>
+        <v>-4.960090196408172</v>
       </c>
       <c r="D5" s="5" t="n">
-        <v>-8.817598184327281</v>
+        <v>-9.563931098096786</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>-4.826622894965122</v>
+        <v>-4.901105873807546</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>-3.771168276025991</v>
+        <v>-3.628196331086524</v>
       </c>
       <c r="G5" s="6" t="n">
-        <v>-0.1677121847186032</v>
+        <v>-0.152394091915427</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>-0.1880789962560386</v>
+        <v>-0.2045845047335542</v>
       </c>
       <c r="I5" s="6" t="n">
-        <v>-0.1159692223586573</v>
+        <v>-0.1201344792169397</v>
       </c>
       <c r="J5" s="6" t="n">
-        <v>-0.1401818400696214</v>
+        <v>-0.138229455066722</v>
       </c>
     </row>
     <row r="6">
@@ -692,28 +692,28 @@
         </is>
       </c>
       <c r="C6" s="5" t="n">
-        <v>8.390487405409841</v>
+        <v>8.977630956549834</v>
       </c>
       <c r="D6" s="5" t="n">
-        <v>5.948915452696796</v>
+        <v>5.312585487982527</v>
       </c>
       <c r="E6" s="5" t="n">
-        <v>10.00390868692754</v>
+        <v>9.895143229128564</v>
       </c>
       <c r="F6" s="5" t="n">
-        <v>6.425634645159127</v>
+        <v>6.929572632850816</v>
       </c>
       <c r="G6" s="6" t="n">
-        <v>0.286840352681869</v>
+        <v>0.3058094471234262</v>
       </c>
       <c r="H6" s="6" t="n">
-        <v>0.1477408509652995</v>
+        <v>0.1329671374245467</v>
       </c>
       <c r="I6" s="6" t="n">
-        <v>0.2762339501757874</v>
+        <v>0.284933873143838</v>
       </c>
       <c r="J6" s="6" t="n">
-        <v>0.3210204166646414</v>
+        <v>0.354242524435135</v>
       </c>
     </row>
     <row r="7">
@@ -737,7 +737,7 @@
         <v>2.05964392311162</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>7.474859447223106</v>
+        <v>7.474859447223111</v>
       </c>
       <c r="G7" s="6" t="n">
         <v>-0.04608222155120973</v>
@@ -749,7 +749,7 @@
         <v>0.05616618852757497</v>
       </c>
       <c r="J7" s="6" t="n">
-        <v>0.4403125096877733</v>
+        <v>0.4403125096877737</v>
       </c>
     </row>
     <row r="8">
@@ -760,28 +760,28 @@
         </is>
       </c>
       <c r="C8" s="5" t="n">
-        <v>-9.008608224025988</v>
+        <v>-9.2270080420261</v>
       </c>
       <c r="D8" s="5" t="n">
-        <v>-7.108198653568297</v>
+        <v>-6.212537649209128</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>-4.701672194319737</v>
+        <v>-5.177293816888861</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>2.267635574927049</v>
+        <v>2.073369772674588</v>
       </c>
       <c r="G8" s="6" t="n">
-        <v>-0.259915881589975</v>
+        <v>-0.2664127752462779</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>-0.1574782077343404</v>
+        <v>-0.1438003377696533</v>
       </c>
       <c r="I8" s="6" t="n">
-        <v>-0.1166527120092008</v>
+        <v>-0.124959759415526</v>
       </c>
       <c r="J8" s="6" t="n">
-        <v>0.1217756586418509</v>
+        <v>0.1012991140187507</v>
       </c>
     </row>
     <row r="9">
@@ -792,28 +792,28 @@
         </is>
       </c>
       <c r="C9" s="5" t="n">
-        <v>5.000855617300348</v>
+        <v>5.16541761279044</v>
       </c>
       <c r="D9" s="5" t="n">
-        <v>8.688297404103226</v>
+        <v>8.6137845440142</v>
       </c>
       <c r="E9" s="5" t="n">
-        <v>9.301932604886508</v>
+        <v>9.808743391685921</v>
       </c>
       <c r="F9" s="5" t="n">
-        <v>12.76891891258124</v>
+        <v>12.67591984051076</v>
       </c>
       <c r="G9" s="6" t="n">
-        <v>0.1863016096977575</v>
+        <v>0.1897543611579936</v>
       </c>
       <c r="H9" s="6" t="n">
-        <v>0.2304920602760208</v>
+        <v>0.2331534482593804</v>
       </c>
       <c r="I9" s="6" t="n">
-        <v>0.2893565645846913</v>
+        <v>0.3024443314112766</v>
       </c>
       <c r="J9" s="6" t="n">
-        <v>0.9165215923150024</v>
+        <v>0.8963548313275692</v>
       </c>
     </row>
     <row r="10">
@@ -837,7 +837,7 @@
         <v>-0.8392539801783672</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>-0.7697322941506768</v>
+        <v>-0.7697322941506712</v>
       </c>
       <c r="G10" s="6" t="n">
         <v>0.2684048313715937</v>
@@ -849,7 +849,7 @@
         <v>-0.0232589510014569</v>
       </c>
       <c r="J10" s="6" t="n">
-        <v>-0.03660413200321777</v>
+        <v>-0.03660413200321751</v>
       </c>
     </row>
     <row r="11">
@@ -860,28 +860,28 @@
         </is>
       </c>
       <c r="C11" s="5" t="n">
-        <v>-1.086396472765448</v>
+        <v>-0.03426223936262878</v>
       </c>
       <c r="D11" s="5" t="n">
-        <v>-8.868013283464492</v>
+        <v>-8.345168246313758</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>-9.41889509962909</v>
+        <v>-10.73423645090091</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>-6.880986660878905</v>
+        <v>-7.238373651193414</v>
       </c>
       <c r="G11" s="6" t="n">
-        <v>-0.02944358475414995</v>
+        <v>-1.937157315602905e-05</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>-0.2029070697768017</v>
+        <v>-0.1958595252546713</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>-0.2509631576098403</v>
+        <v>-0.278399230158833</v>
       </c>
       <c r="J11" s="6" t="n">
-        <v>-0.2982632724403634</v>
+        <v>-0.3007583139910032</v>
       </c>
     </row>
     <row r="12">
@@ -892,28 +892,28 @@
         </is>
       </c>
       <c r="C12" s="5" t="n">
-        <v>16.33469105500922</v>
+        <v>16.56806224918851</v>
       </c>
       <c r="D12" s="5" t="n">
-        <v>6.535404635903677</v>
+        <v>6.275730733484898</v>
       </c>
       <c r="E12" s="5" t="n">
-        <v>7.198159861910337</v>
+        <v>6.949242919756875</v>
       </c>
       <c r="F12" s="5" t="n">
-        <v>5.726727295008628</v>
+        <v>6.018239539124759</v>
       </c>
       <c r="G12" s="6" t="n">
-        <v>0.619237616526671</v>
+        <v>0.6221686261656689</v>
       </c>
       <c r="H12" s="6" t="n">
-        <v>0.1730735295814226</v>
+        <v>0.1569565420489588</v>
       </c>
       <c r="I12" s="6" t="n">
-        <v>0.2102850870545741</v>
+        <v>0.2032314849515706</v>
       </c>
       <c r="J12" s="6" t="n">
-        <v>0.3029624146840881</v>
+        <v>0.3453448199344886</v>
       </c>
     </row>
     <row r="13">
@@ -937,7 +937,7 @@
         <v>1.382955197253039</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>4.942408369370402</v>
+        <v>4.9424083693704</v>
       </c>
       <c r="G13" s="6" t="n">
         <v>0.2176796010803008</v>
@@ -949,7 +949,7 @@
         <v>0.03864783447488202</v>
       </c>
       <c r="J13" s="6" t="n">
-        <v>0.3072637243432262</v>
+        <v>0.307263724343226</v>
       </c>
     </row>
     <row r="14">
@@ -960,28 +960,28 @@
         </is>
       </c>
       <c r="C14" s="5" t="n">
-        <v>1.847711362701723</v>
+        <v>1.901783482492026</v>
       </c>
       <c r="D14" s="5" t="n">
-        <v>-5.212076266899553</v>
+        <v>-4.983541211281229</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>-3.351671793494847</v>
+        <v>-2.71092639811471</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>1.142107032821912</v>
+        <v>1.962116537677183</v>
       </c>
       <c r="G14" s="6" t="n">
-        <v>0.05914988920313153</v>
+        <v>0.06048933511476839</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>-0.1254827430777194</v>
+        <v>-0.1203297325682473</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>-0.08691182920964959</v>
+        <v>-0.0724939088515139</v>
       </c>
       <c r="J14" s="6" t="n">
-        <v>0.06214955664745705</v>
+        <v>0.1067460670285871</v>
       </c>
     </row>
     <row r="15">
@@ -992,28 +992,28 @@
         </is>
       </c>
       <c r="C15" s="5" t="n">
-        <v>10.5377697721687</v>
+        <v>11.27490423200269</v>
       </c>
       <c r="D15" s="5" t="n">
-        <v>4.490937160527279</v>
+        <v>4.250607993203013</v>
       </c>
       <c r="E15" s="5" t="n">
-        <v>5.582123894460685</v>
+        <v>5.897595316375845</v>
       </c>
       <c r="F15" s="5" t="n">
-        <v>7.922522277320833</v>
+        <v>9.052700969345107</v>
       </c>
       <c r="G15" s="6" t="n">
-        <v>0.3786784136878112</v>
+        <v>0.4113295135865023</v>
       </c>
       <c r="H15" s="6" t="n">
-        <v>0.1172794373442281</v>
+        <v>0.1122782410158717</v>
       </c>
       <c r="I15" s="6" t="n">
-        <v>0.1648622928606334</v>
+        <v>0.1720052913555685</v>
       </c>
       <c r="J15" s="6" t="n">
-        <v>0.5482036265086253</v>
+        <v>0.6057938109981277</v>
       </c>
     </row>
     <row r="16">
@@ -1037,7 +1037,7 @@
         <v>2.013121938472107</v>
       </c>
       <c r="F16" s="5" t="n">
-        <v>1.48141304409394</v>
+        <v>1.481413044093946</v>
       </c>
       <c r="G16" s="6" t="n">
         <v>0.1989427230661159</v>
@@ -1049,7 +1049,7 @@
         <v>0.05820419954406444</v>
       </c>
       <c r="J16" s="6" t="n">
-        <v>0.07980139543338173</v>
+        <v>0.07980139543338205</v>
       </c>
     </row>
     <row r="17">
@@ -1060,28 +1060,28 @@
         </is>
       </c>
       <c r="C17" s="5" t="n">
-        <v>-0.2229548920720362</v>
+        <v>-0.03986784342903259</v>
       </c>
       <c r="D17" s="5" t="n">
-        <v>-3.322096408448864</v>
+        <v>-3.434982873338865</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>-2.993962908049034</v>
+        <v>-3.583216384231386</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>-3.0001477246517</v>
+        <v>-3.093248653410174</v>
       </c>
       <c r="G17" s="6" t="n">
-        <v>-0.01524292583984468</v>
+        <v>-0.00221433257108923</v>
       </c>
       <c r="H17" s="6" t="n">
-        <v>-0.08374227923527633</v>
+        <v>-0.09256935649279138</v>
       </c>
       <c r="I17" s="6" t="n">
-        <v>-0.0817507433809643</v>
+        <v>-0.09388917771649939</v>
       </c>
       <c r="J17" s="6" t="n">
-        <v>-0.136680570462777</v>
+        <v>-0.1446187952578012</v>
       </c>
     </row>
     <row r="18">
@@ -1092,28 +1092,28 @@
         </is>
       </c>
       <c r="C18" s="5" t="n">
-        <v>12.72005853104889</v>
+        <v>12.80397520157677</v>
       </c>
       <c r="D18" s="5" t="n">
-        <v>7.776271199203599</v>
+        <v>7.64797934940207</v>
       </c>
       <c r="E18" s="5" t="n">
-        <v>7.230867645493201</v>
+        <v>7.17788900109163</v>
       </c>
       <c r="F18" s="5" t="n">
-        <v>5.603250598849682</v>
+        <v>5.436483259554934</v>
       </c>
       <c r="G18" s="6" t="n">
-        <v>0.45655545841349</v>
+        <v>0.4551277760988407</v>
       </c>
       <c r="H18" s="6" t="n">
-        <v>0.2543558368701592</v>
+        <v>0.2524731562958387</v>
       </c>
       <c r="I18" s="6" t="n">
-        <v>0.2254048016370833</v>
+        <v>0.2272492337672772</v>
       </c>
       <c r="J18" s="6" t="n">
-        <v>0.349234264158751</v>
+        <v>0.3387010825371357</v>
       </c>
     </row>
     <row r="19">
@@ -1160,28 +1160,28 @@
         </is>
       </c>
       <c r="C20" s="5" t="n">
-        <v>4.027283656019835</v>
+        <v>4.099179291135326</v>
       </c>
       <c r="D20" s="5" t="n">
-        <v>-1.080609587215309</v>
+        <v>-2.102398320293483</v>
       </c>
       <c r="E20" s="5" t="n">
-        <v>-6.557443302310312</v>
+        <v>-6.528757105454079</v>
       </c>
       <c r="F20" s="5" t="n">
-        <v>-11.57837445383104</v>
+        <v>-12.01725599985389</v>
       </c>
       <c r="G20" s="6" t="n">
-        <v>0.1447176895608712</v>
+        <v>0.1488712638881099</v>
       </c>
       <c r="H20" s="6" t="n">
-        <v>-0.02541002934613429</v>
+        <v>-0.05167233117551041</v>
       </c>
       <c r="I20" s="6" t="n">
-        <v>-0.1618902365231266</v>
+        <v>-0.1623232923220689</v>
       </c>
       <c r="J20" s="6" t="n">
-        <v>-0.4560362933284458</v>
+        <v>-0.4748341789097811</v>
       </c>
     </row>
     <row r="21">
@@ -1192,28 +1192,28 @@
         </is>
       </c>
       <c r="C21" s="5" t="n">
-        <v>14.99983884432567</v>
+        <v>15.16282544810465</v>
       </c>
       <c r="D21" s="5" t="n">
-        <v>11.05532859851917</v>
+        <v>11.41843908412883</v>
       </c>
       <c r="E21" s="5" t="n">
-        <v>6.054047912042914</v>
+        <v>6.40831343244383</v>
       </c>
       <c r="F21" s="5" t="n">
-        <v>4.216719186176229</v>
+        <v>4.359788746182279</v>
       </c>
       <c r="G21" s="6" t="n">
-        <v>0.7749577619482824</v>
+        <v>0.7976175203762604</v>
       </c>
       <c r="H21" s="6" t="n">
-        <v>0.3598738957516899</v>
+        <v>0.3713221968963592</v>
       </c>
       <c r="I21" s="6" t="n">
-        <v>0.2051487540699695</v>
+        <v>0.2132469735014689</v>
       </c>
       <c r="J21" s="6" t="n">
-        <v>0.3872556974929984</v>
+        <v>0.4133820448713653</v>
       </c>
     </row>
     <row r="22">
@@ -1260,28 +1260,28 @@
         </is>
       </c>
       <c r="C23" s="5" t="n">
-        <v>2.67357491491542</v>
+        <v>2.5435781159635</v>
       </c>
       <c r="D23" s="5" t="n">
-        <v>-2.332582532647393</v>
+        <v>-2.615625565757604</v>
       </c>
       <c r="E23" s="5" t="n">
-        <v>-1.569230389470697</v>
+        <v>-1.55212857859545</v>
       </c>
       <c r="F23" s="5" t="n">
-        <v>-0.4349064862657735</v>
+        <v>-0.3714793505971218</v>
       </c>
       <c r="G23" s="6" t="n">
-        <v>0.0876889838647547</v>
+        <v>0.08385383519097388</v>
       </c>
       <c r="H23" s="6" t="n">
-        <v>-0.05705644345137215</v>
+        <v>-0.06195143547580145</v>
       </c>
       <c r="I23" s="6" t="n">
-        <v>-0.04218349471282353</v>
+        <v>-0.04210924484067874</v>
       </c>
       <c r="J23" s="6" t="n">
-        <v>-0.02233430074705829</v>
+        <v>-0.02170122020434234</v>
       </c>
     </row>
     <row r="24">
@@ -1292,28 +1292,28 @@
         </is>
       </c>
       <c r="C24" s="5" t="n">
-        <v>7.044031795190814</v>
+        <v>7.253220015904067</v>
       </c>
       <c r="D24" s="5" t="n">
-        <v>2.245278629822549</v>
+        <v>2.423241977568268</v>
       </c>
       <c r="E24" s="5" t="n">
-        <v>2.873835214585663</v>
+        <v>2.982648548311233</v>
       </c>
       <c r="F24" s="5" t="n">
-        <v>3.286554856182198</v>
+        <v>3.546563579619227</v>
       </c>
       <c r="G24" s="6" t="n">
-        <v>0.2494399546570965</v>
+        <v>0.2548854078398144</v>
       </c>
       <c r="H24" s="6" t="n">
-        <v>0.05867789134402237</v>
+        <v>0.06258098143741565</v>
       </c>
       <c r="I24" s="6" t="n">
-        <v>0.08282425180034397</v>
+        <v>0.08622409827660645</v>
       </c>
       <c r="J24" s="6" t="n">
-        <v>0.1883058966059666</v>
+        <v>0.2002226373650779</v>
       </c>
     </row>
     <row r="25">
